--- a/plots/countries/plot data/Spain.xlsx
+++ b/plots/countries/plot data/Spain.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>32.9239171902965</v>
+        <v>33.3756280170595</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>26.721637783576</v>
+        <v>26.721648745818</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>3.7586872651472</v>
+        <v>3.93348392510883</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>78.8514765251305</v>
+        <v>78.0700736160515</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>27.8457347073098</v>
+        <v>27.9616238814731</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-33.8928644806056</v>
+        <v>-36.1744480222662</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>13.5352519220519</v>
+        <v>13.0615205923463</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>31.5582029898318</v>
+        <v>31.9304406992962</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>29.27839626813</v>
+        <v>29.278408223371</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>3.39334791594023</v>
+        <v>3.64923296691899</v>
       </c>
     </row>
     <row r="14">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>79.2680213764813</v>
+        <v>78.4970051986865</v>
       </c>
     </row>
     <row r="16">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>26.5262890817991</v>
+        <v>26.6351788879171</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.0696293446412</v>
+        <v>-36.3565545149028</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>13.5858967004543</v>
+        <v>13.1472938761115</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6660677150891</v>
+        <v>31.9246916460245</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>30.103638475718</v>
+        <v>30.103647438649</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>3.66976036649103</v>
+        <v>3.98204972019557</v>
       </c>
     </row>
     <row r="23">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>86.5533162106937</v>
+        <v>85.7146156266963</v>
       </c>
     </row>
     <row r="25">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>25.20737172535</v>
+        <v>25.311566807017</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-34.2218658020247</v>
+        <v>-36.5127645836497</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>13.8500690829931</v>
+        <v>13.4105702738611</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>30.773448283439</v>
+        <v>30.9779621122953</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>29.288641793614</v>
+        <v>29.288650765581</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>3.52699412902699</v>
+        <v>3.76363752661535</v>
       </c>
     </row>
     <row r="32">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>80.6381425767545</v>
+        <v>79.8149972876179</v>
       </c>
     </row>
     <row r="34">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>24.2341590000988</v>
+        <v>24.3454272879686</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-35.3874295076697</v>
+        <v>-37.682712437677</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>13.9646395446071</v>
+        <v>13.5065908802365</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>32.2885267241261</v>
+        <v>32.4594859037876</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>30.326961338798</v>
+        <v>30.325879845777</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>3.68878575001686</v>
+        <v>3.81979776510397</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>51.5806553499866</v>
+        <v>51.5817673602866</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>80.3620777061578</v>
+        <v>79.6420467746775</v>
       </c>
     </row>
     <row r="43">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>28.2038801934666</v>
+        <v>28.3142674582388</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-34.149370412794</v>
+        <v>-36.4594549242125</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>14.3088539351892</v>
+        <v>13.8698829415622</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>32.698850428906</v>
+        <v>32.7987552464982</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>30.096427874332</v>
+        <v>30.095346375604</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>3.35710557683864</v>
+        <v>3.49666766300666</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>59.3360992809814</v>
+        <v>59.3372112404584</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>86.1270641430837</v>
+        <v>85.3665017902139</v>
       </c>
     </row>
     <row r="52">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>29.7585924400797</v>
+        <v>29.8709778625465</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-36.4310619331925</v>
+        <v>-38.7374329141053</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>14.4961623112437</v>
+        <v>14.0809038097723</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>35.3075854160174</v>
+        <v>35.4304398002931</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>31.164727984538</v>
+        <v>31.162572974681</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>3.25892542633056</v>
+        <v>3.37684512458747</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>54.1795295711457</v>
+        <v>54.1817535227437</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>73.0881161242481</v>
+        <v>72.3829737434382</v>
       </c>
     </row>
     <row r="61">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>30.6791030321751</v>
+        <v>30.7860430257089</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-37.2375073879444</v>
+        <v>-39.5468789162767</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>14.9347523723637</v>
+        <v>14.5527629117141</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>35.2463988969512</v>
+        <v>35.2864843429135</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>31.313139906783</v>
+        <v>31.312068379501</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>3.27482344342003</v>
+        <v>3.42062285655895</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>53.4583266064766</v>
+        <v>53.4594386544556</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>85.5323207659033</v>
+        <v>84.7659525144174</v>
       </c>
     </row>
     <row r="70">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>32.8531133267705</v>
+        <v>32.9628983374364</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-37.1795002518878</v>
+        <v>-39.4938818242155</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>15.4859437851935</v>
+        <v>15.1391175743689</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>36.154423751784</v>
+        <v>36.2043585507172</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>32.11620337931</v>
+        <v>32.10748973331</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>3.19698248297286</v>
+        <v>3.31537696502153</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>53.4568539500142</v>
+        <v>53.4658394664992</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>85.1195351136191</v>
+        <v>84.3797834905979</v>
       </c>
     </row>
     <row r="79">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>34.6531185265153</v>
+        <v>34.7552386975794</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-37.8622324713735</v>
+        <v>-40.009306855644</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>15.3566462084837</v>
+        <v>15.0185824665816</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>36.826364029484</v>
+        <v>36.8726631976371</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>33.893478302812</v>
+        <v>33.883019778167</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>3.23756671746871</v>
+        <v>3.38840727196976</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>55.3202989788465</v>
+        <v>55.3311022985025</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>100.404351676678</v>
+        <v>99.5455572699481</v>
       </c>
     </row>
     <row r="88">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>37.3945729065113</v>
+        <v>37.485518017696</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-41.4327899844042</v>
+        <v>-42.9242777039845</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>15.5280070585304</v>
+        <v>15.1867823426466</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>38.6246617497657</v>
+        <v>38.6273501707384</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>35.789615317457</v>
+        <v>35.771772086219</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>3.3103120931191</v>
+        <v>3.45765278620217</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>58.8145232188875</v>
+        <v>58.8325267442515</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>104.95171292806</v>
+        <v>104.033256864379</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>86.494613413661</v>
+        <v>86.494555273254</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>39.3229091677583</v>
+        <v>39.3740507633115</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-43.3925575040896</v>
+        <v>-44.6378002767101</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>15.7809074323318</v>
+        <v>15.3543271586625</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>38.1871105844971</v>
+        <v>38.12590932</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>36.736675124393</v>
+        <v>36.712501022784</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>3.20303222604447</v>
+        <v>3.33736999788996</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>61.2009957342763</v>
+        <v>61.2256679504633</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>99.1660526641801</v>
+        <v>98.3433523034925</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>90.3286305369107</v>
+        <v>90.3284598678947</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>36.9305960410862</v>
+        <v>36.9555932354752</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-45.3003291159752</v>
+        <v>-46.5267705061233</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>15.9945596932735</v>
+        <v>15.5671875732181</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>37.5344644783073</v>
+        <v>37.4440187209822</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>37.580573358187</v>
+        <v>37.551606431567</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>3.24158696753916</v>
+        <v>3.34662420287472</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>63.9023641738854</v>
+        <v>63.9317778700424</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>113.247001849164</v>
+        <v>112.306689612528</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>92.0657406762857</v>
+        <v>92.0653559830067</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>36.5643588558115</v>
+        <v>36.5932012786041</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-44.3422331925176</v>
+        <v>-46.0375728178734</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>16.0961567481218</v>
+        <v>15.662770289492</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>38.2383533655496</v>
+        <v>38.147539990134</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>39.490732418823</v>
+        <v>39.461004148742</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>2.98552345306673</v>
+        <v>3.11964668937937</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>68.6663343709513</v>
+        <v>68.6965393881643</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>106.090591828828</v>
+        <v>105.230931321266</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>96.5936227044115</v>
+        <v>96.5931087675865</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>39.2247158542014</v>
+        <v>39.2516739623151</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-43.8736825905593</v>
+        <v>-45.5604713716367</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>15.9289173815513</v>
+        <v>15.4870896600271</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>37.0977008230402</v>
+        <v>37.0339071333057</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>41.95011595614</v>
+        <v>41.92338683066</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>3.23629836175363</v>
+        <v>3.33549493504709</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>68.6736199454081</v>
+        <v>68.690766358764</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>115.836815857518</v>
+        <v>114.941670511711</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>100.261059669418</v>
+        <v>100.260261104852</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>40.3300675945184</v>
+        <v>40.3567344124107</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-45.1958708784343</v>
+        <v>-45.9655508729103</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>15.2773178820563</v>
+        <v>14.8417611755668</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>34.920061256707</v>
+        <v>34.7983297674058</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>42.6699261149648</v>
+        <v>42.6405250994258</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>3.24901459024599</v>
+        <v>3.3057922065247</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>69.8843390230581</v>
+        <v>69.8942613514382</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>125.694357981068</v>
+        <v>124.802449581599</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>102.842491507532</v>
+        <v>102.841634671487</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>43.0449762596287</v>
+        <v>43.066768617521</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-46.0197029493578</v>
+        <v>-47.1000536651924</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>15.424588782213</v>
+        <v>14.9913425224352</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>35.0594385445418</v>
+        <v>34.9666204701232</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>44.9508481155762</v>
+        <v>44.9443821606081</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>3.4065104467462</v>
+        <v>3.44228875919969</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>59.547355950588</v>
+        <v>59.539462807368</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>120.865811219952</v>
+        <v>120.081886177839</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>106.133388838049</v>
+        <v>106.132805128175</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>45.9560244253336</v>
+        <v>45.9790244866649</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-48.4319507249705</v>
+        <v>-49.2954329295427</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>16.0156011412183</v>
+        <v>15.5637045153567</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>35.7585765587267</v>
+        <v>35.6153926069479</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>42.7213240546429</v>
+        <v>42.6179232140909</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>3.53578162785507</v>
+        <v>3.56649023175726</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>61.5787996548578</v>
+        <v>61.5768199642478</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>126.53002074436</v>
+        <v>125.68998238032</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>108.482706818495</v>
+        <v>108.481850343636</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>47.4881945972978</v>
+        <v>47.5109204700336</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-45.7249575197746</v>
+        <v>-46.5117725771437</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>16.5394829054659</v>
+        <v>16.1243521964307</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>32.8309312453479</v>
+        <v>32.6951572454834</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>42.0836997017978</v>
+        <v>41.9800680271728</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>3.27337133221748</v>
+        <v>3.29961961808497</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>58.09276609518</v>
+        <v>58.095554675366</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>109.140461509293</v>
+        <v>108.627161226233</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>102.549887482913</v>
+        <v>102.548844392379</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>44.4987587666782</v>
+        <v>44.5231156849544</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-45.6368232776991</v>
+        <v>-46.5153432317893</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>16.4779666676038</v>
+        <v>16.0898303056638</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>33.3739896422528</v>
+        <v>33.3169101034829</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>42.3510532991965</v>
+        <v>42.3145938757495</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>3.10502955733103</v>
+        <v>3.12912797824614</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>48.0755772973417</v>
+        <v>48.1377549942917</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>91.5932498392002</v>
+        <v>91.2171730725221</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>95.2587014342727</v>
+        <v>95.2577065502227</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>37.8942263495928</v>
+        <v>37.912855860685</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-43.3121054998232</v>
+        <v>-44.2669458578457</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>17.9460898665664</v>
+        <v>17.5037305621325</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>33.1489067932037</v>
+        <v>33.0397817009678</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>46.3258013302936</v>
+        <v>46.2316958152006</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>3.03735367201464</v>
+        <v>3.06060594132455</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>49.8879202316352</v>
+        <v>49.8876760279612</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>74.4445594005158</v>
+        <v>74.182783739148</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>91.9171063114577</v>
+        <v>91.9162012807507</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>38.9832269150066</v>
+        <v>39.0012449788165</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-45.8615316106574</v>
+        <v>-47.5565711973715</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>16.7428147516277</v>
+        <v>16.3077491168387</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>32.4572221726479</v>
+        <v>32.3608085399639</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>44.1142473878198</v>
+        <v>44.0483479082028</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>3.40197197184542</v>
+        <v>3.42484828577015</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>46.8813007100451</v>
+        <v>46.8963214370211</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>87.1369116710313</v>
+        <v>86.6571796874047</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>86.7195859464421</v>
+        <v>86.7187512537781</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>36.2377852949857</v>
+        <v>36.2588762215956</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-45.3242037632065</v>
+        <v>-47.7930472254008</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>17.3453839074896</v>
+        <v>16.8600493143866</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>31.4094172573785</v>
+        <v>31.2934495820177</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>42.7732685832341</v>
+        <v>42.7261322446061</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>3.93129372357231</v>
+        <v>3.94979525839823</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>45.7186158361468</v>
+        <v>45.7181935499788</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>92.2622279026637</v>
+        <v>91.6821769446829</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>79.5371545015029</v>
+        <v>79.5364062415649</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>34.6171008039334</v>
+        <v>34.6335943198777</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-42.7841660412561</v>
+        <v>-45.8563851756873</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>16.9251320451694</v>
+        <v>16.4278830188679</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>31.1466342014643</v>
+        <v>31.0501000965192</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>39.6351157042357</v>
+        <v>39.5880655822367</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>4.39728881103975</v>
+        <v>4.42801679134485</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>42.5623382112385</v>
+        <v>43.1978596848215</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>72.0468986606573</v>
+        <v>71.6275163569843</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>80.338395327417</v>
+        <v>80.337753921628</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>33.460122418245</v>
+        <v>33.4785646849237</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-41.9754538052776</v>
+        <v>-45.8874430286746</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>15.5594268071137</v>
+        <v>15.8814458777325</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>32.4047385664597</v>
+        <v>32.252955588164</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>38.531274032354</v>
+        <v>38.477872066567</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>4.55165537744429</v>
+        <v>4.56415388816737</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>39.72473842864</v>
+        <v>39.7308052973551</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>75.2577402497666</v>
+        <v>74.783485476592</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>80.6131199090344</v>
+        <v>80.6220776227644</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>35.2987689271327</v>
+        <v>35.3146209666594</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-43.8823175258598</v>
+        <v>-48.5386334067355</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>14.2740577944015</v>
+        <v>14.616902628369</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>33.0460812401873</v>
+        <v>32.876783496168</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>38.8087771899898</v>
+        <v>38.7617257762088</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>4.05349924228501</v>
+        <v>4.14640675574999</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>42.2155372309627</v>
+        <v>42.2371687690577</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>85.2059163887134</v>
+        <v>84.6358277287092</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>83.7303967150682</v>
+        <v>83.7677063165732</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>29.9707624621426</v>
+        <v>29.9841101992696</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-46.3580463817344</v>
+        <v>-51.7031379960447</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>15.295392665974</v>
+        <v>15.5552464506909</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>33.1270244166838</v>
+        <v>32.9547784389322</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>38.1734070794597</v>
+        <v>38.1106690251317</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>4.09579935203176</v>
+        <v>4.18037806375126</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>44.2125447117357</v>
+        <v>44.3221657392221</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>69.8813668761435</v>
+        <v>69.6371841624862</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>86.5850009919725</v>
+        <v>86.6517321085215</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>29.531295483291</v>
+        <v>29.5432342577464</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-46.6017907228703</v>
+        <v>-52.0938149266577</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>14.85388214531</v>
+        <v>14.990350963213</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>33.8921450398622</v>
+        <v>33.6142984202004</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>38.4945102596215</v>
+        <v>38.4004031207475</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>4.11732205840635</v>
+        <v>4.15684899172372</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>45.8759174278079</v>
+        <v>45.9649977181955</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>79.9984365409926</v>
+        <v>79.888395947304</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>89.2408225266826</v>
+        <v>89.2354850520776</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>27.2984423102182</v>
+        <v>27.3089237684502</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-47.1080471768846</v>
+        <v>-52.5175262474177</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>14.6463642460847</v>
+        <v>14.7143972379953</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>33.8105705559097</v>
+        <v>33.6258888240588</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>40.2545679689733</v>
+        <v>40.1761449347663</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>4.11219780916587</v>
+        <v>4.25319871867444</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>47.0240076710373</v>
+        <v>47.1171271087285</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>70.7115567568502</v>
+        <v>70.5039770953842</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>90.2837643197693</v>
+        <v>90.2917521843051</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>26.8756593895568</v>
+        <v>26.8723984682705</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-47.9573298513573</v>
+        <v>-53.4755237136048</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>14.7304046950826</v>
+        <v>14.7369298758079</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>33.9074904132353</v>
+        <v>33.6829300354897</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>38.3413108508552</v>
+        <v>38.2776283210591</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>3.88767280835732</v>
+        <v>4.11480690175472</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>46.8658437369064</v>
+        <v>46.9474182752424</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>55.2457127102118</v>
+        <v>55.0869396025221</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>91.4084032900326</v>
+        <v>91.4301027469853</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>25.2030970257257</v>
+        <v>25.2471909757016</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-46.9882227187249</v>
+        <v>-51.9440946646543</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>14.0228581681394</v>
+        <v>14.1070306265687</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>34.9903966298176</v>
+        <v>34.8208886557298</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>37.989600877101</v>
+        <v>37.92594182848</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>3.78490228103219</v>
+        <v>3.85887178411341</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>41.7669623167654</v>
+        <v>41.8489800426402</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>40.781245134995</v>
+        <v>40.6399843930873</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>73.8678480463278</v>
+        <v>73.8449053634554</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>22.831617208242</v>
+        <v>22.9115306921867</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-46.4748127725437</v>
+        <v>-51.0838313364012</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>13.9912360815637</v>
+        <v>13.9521445682173</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>34.6829731463155</v>
+        <v>34.5703901036401</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>38.7263848995121</v>
+        <v>38.8506783922311</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>3.72669094339246</v>
+        <v>3.81109247362361</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>45.5568456465846</v>
+        <v>45.2589490545673</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>41.2294593856936</v>
+        <v>41.0862323689601</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>85.5171975445309</v>
+        <v>85.4857869480657</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>24.0549878729181</v>
+        <v>23.8808519619358</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-47.5163372855177</v>
+        <v>-51.7755461891002</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>14.381022899369</v>
+        <v>14.6246469756748</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>34.8632416309728</v>
+        <v>33.604666754624</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>36.4787124017313</v>
+        <v>36.2673515249593</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>4.09327356343834</v>
+        <v>4.15115935471179</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>37.864138999934</v>
+        <v>37.6871280245844</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>53.1631237255508</v>
+        <v>53.0237190972792</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>90.4568393165145</v>
+        <v>90.448839631367</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>22.5495335839067</v>
+        <v>22.5097180427976</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-47.4173419292126</v>
+        <v>-50.6208439527364</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>14.1335187682262</v>
+        <v>14.6043197442125</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>32.8850555840515</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>35.5946970246853</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3.78395816914107</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>34.928915160392</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>41.4705339314414</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>87.6978874799885</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>19.9433173204347</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-51.032762708846</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>13.6632741210436</v>
       </c>
     </row>
   </sheetData>
